--- a/file/template/pusdiklat/execution/training.student.xlsx
+++ b/file/template/pusdiklat/execution/training.student.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="12135" windowHeight="5265"/>
+    <workbookView xWindow="510" yWindow="675" windowWidth="12135" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -210,6 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,53 +567,74 @@
     <col min="4" max="4" width="39.85546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -629,11 +653,16 @@
       <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -651,23 +680,33 @@
         <v>13</v>
       </c>
       <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="20"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="19"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.74803149606299002" bottom="0.85416666666666996" header="0.31496062992126" footer="0.31496062992126"/>
